--- a/techniqo/data_new_ticker/SIS.xlsx
+++ b/techniqo/data_new_ticker/SIS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G727"/>
+  <dimension ref="A1:G729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25831,6 +25831,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>385</v>
+      </c>
+      <c r="C728" t="n">
+        <v>391.95</v>
+      </c>
+      <c r="D728" t="n">
+        <v>366</v>
+      </c>
+      <c r="E728" t="n">
+        <v>371.9</v>
+      </c>
+      <c r="F728" t="n">
+        <v>71475</v>
+      </c>
+      <c r="G728" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>375.8</v>
+      </c>
+      <c r="C729" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="D729" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="E729" t="n">
+        <v>365.1</v>
+      </c>
+      <c r="F729" t="n">
+        <v>53780</v>
+      </c>
+      <c r="G729" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/SIS.xlsx
+++ b/techniqo/data_new_ticker/SIS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G729"/>
+  <dimension ref="A1:G731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25881,6 +25881,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>365.1</v>
+      </c>
+      <c r="C730" t="n">
+        <v>375</v>
+      </c>
+      <c r="D730" t="n">
+        <v>362</v>
+      </c>
+      <c r="E730" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="F730" t="n">
+        <v>48761</v>
+      </c>
+      <c r="G730" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>373.45</v>
+      </c>
+      <c r="C731" t="n">
+        <v>384.05</v>
+      </c>
+      <c r="D731" t="n">
+        <v>365.45</v>
+      </c>
+      <c r="E731" t="n">
+        <v>380.55</v>
+      </c>
+      <c r="F731" t="n">
+        <v>90958</v>
+      </c>
+      <c r="G731" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
